--- a/medicine/Enfance/Rachel_Pludermacher/Rachel_Pludermacher.xlsx
+++ b/medicine/Enfance/Rachel_Pludermacher/Rachel_Pludermacher.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rachel Pludermacher, née Levin ou Lévinate le 5 novembre 1908 à Vilnius en Lituanie et morte le 19 février 2002, est une éducatrice juive d'origine lituanienne, qui avec son époux Serge Pludermacher, s'occupe d'enfants juifs au château de Chabannes, à Chabannes, aujourd'hui Saint-Pierre-de-Fursac (Creuse), et à la maison des enfants d'Izieu (Ain).
 </t>
@@ -511,13 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Rachel Levin (ou Lévinate) est née le 9 novembre 1908 à Vilnius, en Lituanie. Elle arrive en France en janvier 1930 à l'âge de 22 ans.
-L'Œuvre de secours aux enfants
-Rachel Levin est la première employée de l'Œuvre de secours aux enfants (OSE) en France en 1934[1].
-Elle travaille à la maison d'enfants de Montmorency, maison qui accueillait des enfants réfugiés d'Allemagne, arrivés seuls en France pour fuir le nazisme. À partir de 1940, elle est éducatrice à la maison d'enfants située au Château de Chabannes (Creuse) où elle rencontre son futur mari, Serge Pludermacher.
-Elle est envoyée de 1943 à 1944 dans plusieurs autres maisons d'enfants, dont la maison des enfants d'Izieu qu'elle quitte, alors enceinte, quelques jours avant la rafle du 6 avril 1944. Elle donne naissance à son fils, Georges Pludermacher[2], futur pianiste, à Guéret (Creuse), à proximité de Chabannes, le 26 juillet 1944. Il s'appelle Georges, en souvenir de son grand-père paternel, Gershon Pludermacher, un éducateur juif à Vilnius[3]. Elle est également la grand-mère d'Isolde Pludermacher, conservatrice en chef du patrimoine au musée d'Orsay.
 </t>
         </is>
       </c>
@@ -543,12 +553,53 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>L'Œuvre de secours aux enfants</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rachel Levin est la première employée de l'Œuvre de secours aux enfants (OSE) en France en 1934.
+Elle travaille à la maison d'enfants de Montmorency, maison qui accueillait des enfants réfugiés d'Allemagne, arrivés seuls en France pour fuir le nazisme. À partir de 1940, elle est éducatrice à la maison d'enfants située au Château de Chabannes (Creuse) où elle rencontre son futur mari, Serge Pludermacher.
+Elle est envoyée de 1943 à 1944 dans plusieurs autres maisons d'enfants, dont la maison des enfants d'Izieu qu'elle quitte, alors enceinte, quelques jours avant la rafle du 6 avril 1944. Elle donne naissance à son fils, Georges Pludermacher, futur pianiste, à Guéret (Creuse), à proximité de Chabannes, le 26 juillet 1944. Il s'appelle Georges, en souvenir de son grand-père paternel, Gershon Pludermacher, un éducateur juif à Vilnius. Elle est également la grand-mère d'Isolde Pludermacher, conservatrice en chef du patrimoine au musée d'Orsay.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rachel_Pludermacher</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Rachel_Pludermacher</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Film</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle parait dans le film sur les Enfants de Chabannes, en 1999[4],[5],[6],[7],[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle parait dans le film sur les Enfants de Chabannes, en 1999.
 </t>
         </is>
       </c>
